--- a/data/tower_count/tower_count_2017.xlsx
+++ b/data/tower_count/tower_count_2017.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F430A-EE22-48B9-BD72-B979996D22A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="420" windowWidth="16035" windowHeight="8985"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -36,24 +42,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July </t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>FOG</t>
-  </si>
-  <si>
     <t>5 + 4</t>
   </si>
   <si>
@@ -66,15 +54,6 @@
     <t>29 + 10</t>
   </si>
   <si>
-    <t>23 + 12</t>
-  </si>
-  <si>
-    <t>40 + 7</t>
-  </si>
-  <si>
-    <t>79 + 19</t>
-  </si>
-  <si>
     <t>37 + 23</t>
   </si>
   <si>
@@ -105,12 +84,6 @@
     <t>25 + 2</t>
   </si>
   <si>
-    <t>23 + 5</t>
-  </si>
-  <si>
-    <t>62 + 7</t>
-  </si>
-  <si>
     <t>16 + 7</t>
   </si>
   <si>
@@ -141,9 +114,6 @@
     <t>6 puffins, 2 RAZO, 1 cormorant, 1 loon</t>
   </si>
   <si>
-    <t>8 BLSC, 5 DCCO, 1 BAEA, 2 greater yellowlegs</t>
-  </si>
-  <si>
     <t>2 ATPU, 2 DCCO, 1 loon</t>
   </si>
   <si>
@@ -162,12 +132,6 @@
     <t>4 ATPU, 6 DCCO</t>
   </si>
   <si>
-    <t>7 DCCO, 1 AMCR, 1 BAEA</t>
-  </si>
-  <si>
-    <t>8 DCCO, 2 BLSC, 1 willet</t>
-  </si>
-  <si>
     <t>3 ATPU, 5 DCCO, 1 NOGA, 1 gray seal</t>
   </si>
   <si>
@@ -202,12 +166,6 @@
   </si>
   <si>
     <t>1 DCCO, 6 ATPU</t>
-  </si>
-  <si>
-    <t>2 BAEA, 5 DCCO, 1 gray seal w/gilly, 1 ATPU, 4 sandpipers</t>
-  </si>
-  <si>
-    <t>2 NOGA</t>
   </si>
   <si>
     <t>8 ATPU, 2 RAZO, 15 spotted sandpipers</t>
@@ -228,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,6 +244,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -333,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,9 +327,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,799 +606,611 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="2">
+        <v>42891</v>
+      </c>
+      <c r="B2">
+        <v>431</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>165</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B3">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="B4">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="B5">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="B6">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42895</v>
+        <v>42896</v>
       </c>
       <c r="B7">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42896</v>
+        <v>42897</v>
       </c>
       <c r="B8">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42898</v>
+      </c>
+      <c r="B9">
+        <v>276</v>
+      </c>
+      <c r="C9">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
       <c r="D9">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="2">
+        <v>42899</v>
       </c>
       <c r="B10">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>255</v>
-      </c>
-      <c r="E10">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+      <c r="A11" s="2">
+        <v>42900</v>
       </c>
       <c r="B11">
-        <v>451</v>
+        <v>346</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>650</v>
-      </c>
-      <c r="E11">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>42897</v>
+        <v>42901</v>
       </c>
       <c r="B12">
-        <v>312</v>
+        <v>555</v>
       </c>
       <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>260</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12">
-        <v>111</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>42898</v>
+        <v>42902</v>
       </c>
       <c r="B13">
-        <v>276</v>
+        <v>629</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>154</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>42899</v>
+        <v>42907</v>
       </c>
       <c r="B14">
-        <v>401</v>
+        <v>488</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>132</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42900</v>
+        <v>42908</v>
       </c>
       <c r="B15">
-        <v>346</v>
+        <v>487</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>98</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>177</v>
+      </c>
+      <c r="E15" s="4">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>42901</v>
+        <v>42909</v>
       </c>
       <c r="B16">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>42902</v>
+        <v>42911</v>
       </c>
       <c r="B17">
-        <v>629</v>
+        <v>336</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>42907</v>
+        <v>42912</v>
       </c>
       <c r="B18">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>122</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>42908</v>
+        <v>42913</v>
       </c>
       <c r="B19">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>177</v>
-      </c>
-      <c r="E19" s="4">
+        <v>122</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42914</v>
+      </c>
+      <c r="B20">
+        <v>475</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>42915</v>
+      </c>
+      <c r="B21">
+        <v>516</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>146</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B22">
+        <v>546</v>
+      </c>
+      <c r="C22">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <v>111</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>46</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>216</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>319</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>343</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>852</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>736</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>18</v>
+      <c r="F22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>42909</v>
+        <v>42919</v>
       </c>
       <c r="B23">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>99</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>42910</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>42922</v>
+      </c>
+      <c r="B24">
+        <v>455</v>
+      </c>
+      <c r="C24">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>89</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>42911</v>
+        <v>42924</v>
       </c>
       <c r="B25">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C25">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>149</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>42912</v>
+        <v>42925</v>
       </c>
       <c r="B26">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>42913</v>
+        <v>42926</v>
       </c>
       <c r="B27">
-        <v>457</v>
+        <v>327</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>42914</v>
+        <v>42927</v>
       </c>
       <c r="B28">
-        <v>475</v>
+        <v>306</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>42915</v>
+        <v>42928</v>
       </c>
       <c r="B29">
-        <v>516</v>
+        <v>317</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D29">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>42916</v>
+        <v>42929</v>
       </c>
       <c r="B30">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="A31" s="2">
+        <v>42930</v>
+      </c>
+      <c r="B31">
+        <v>572</v>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>176</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>42919</v>
+        <v>42931</v>
       </c>
       <c r="B32">
-        <v>444</v>
+        <v>542</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>106</v>
-      </c>
-      <c r="E32" s="4">
-        <v>8</v>
+        <v>235</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>42922</v>
-      </c>
-      <c r="B33">
-        <v>455</v>
-      </c>
-      <c r="C33">
-        <v>57</v>
-      </c>
-      <c r="D33">
-        <v>89</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>42924</v>
-      </c>
-      <c r="B34">
-        <v>326</v>
-      </c>
-      <c r="C34">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>42925</v>
-      </c>
-      <c r="B35">
-        <v>387</v>
-      </c>
-      <c r="C35">
-        <v>47</v>
-      </c>
-      <c r="D35">
-        <v>81</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>42926</v>
-      </c>
-      <c r="B36">
-        <v>327</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>92</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>56</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>193</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38">
-        <v>205</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>276</v>
-      </c>
-      <c r="E38">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39">
-        <v>588</v>
-      </c>
-      <c r="C39">
-        <v>44</v>
-      </c>
-      <c r="D39">
-        <v>561</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>42927</v>
-      </c>
-      <c r="B40">
-        <v>306</v>
-      </c>
-      <c r="C40">
-        <v>49</v>
-      </c>
-      <c r="D40">
-        <v>104</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>42928</v>
-      </c>
-      <c r="B41">
-        <v>317</v>
-      </c>
-      <c r="C41">
-        <v>46</v>
-      </c>
-      <c r="D41">
-        <v>68</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>42929</v>
-      </c>
-      <c r="B42">
-        <v>562</v>
-      </c>
-      <c r="C42">
-        <v>37</v>
-      </c>
-      <c r="D42">
-        <v>185</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42930</v>
-      </c>
-      <c r="B43">
-        <v>572</v>
-      </c>
-      <c r="C43">
-        <v>46</v>
-      </c>
-      <c r="D43">
-        <v>176</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>42931</v>
-      </c>
-      <c r="B44">
-        <v>542</v>
-      </c>
-      <c r="C44">
         <v>52</v>
-      </c>
-      <c r="D44">
-        <v>235</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1424,7 +1231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/tower_count/tower_count_2017.xlsx
+++ b/data/tower_count/tower_count_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F430A-EE22-48B9-BD72-B979996D22A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB09F6-065A-4F6C-9392-9E90A82BFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
